--- a/models/ist.xlsx
+++ b/models/ist.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="20385" windowHeight="8430" firstSheet="3" activeTab="4"/>
+    <workbookView windowWidth="19035" windowHeight="7950" firstSheet="3" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="LAYOUT" sheetId="1" r:id="rId1"/>
@@ -975,12 +975,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
-    <numFmt numFmtId="176" formatCode="dd\-mmm"/>
-    <numFmt numFmtId="177" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="0.0"/>
+    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="0.0"/>
-    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="dd\-mmm"/>
+    <numFmt numFmtId="178" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="41">
     <font>
@@ -1116,14 +1116,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -1131,8 +1123,32 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1146,17 +1162,10 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1185,8 +1194,30 @@
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1200,14 +1231,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="Calibri"/>
@@ -1215,24 +1238,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1252,16 +1259,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1336,48 +1336,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1390,7 +1348,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1402,55 +1474,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1463,36 +1493,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1713,6 +1713,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -1746,21 +1761,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -1772,6 +1772,21 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1795,164 +1810,149 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="23" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="37" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="37" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="37" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="37" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="37" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="23" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="37" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="15" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="14" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="22" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="37" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="22" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="22" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="26" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="16" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="15" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="14" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="37" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="22" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="22" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="19" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="22" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2014,10 +2014,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2158,7 +2158,7 @@
       <alignment horizontal="left" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="2" borderId="0" xfId="44" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="178" fontId="0" fillId="2" borderId="0" xfId="44" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection hidden="1"/>
     </xf>
@@ -2444,7 +2444,7 @@
       <alignment horizontal="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="178" fontId="9" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyProtection="1">
+    <xf numFmtId="176" fontId="9" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyProtection="1">
       <protection hidden="1"/>
     </xf>
     <xf numFmtId="2" fontId="9" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyProtection="1">
@@ -2460,10 +2460,10 @@
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1" quotePrefix="1">
@@ -3473,8 +3473,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3779520" y="700405"/>
-          <a:ext cx="983615" cy="381000"/>
+          <a:off x="3779520" y="709930"/>
+          <a:ext cx="983615" cy="390525"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3541,7 +3541,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8366760" y="709930"/>
+          <a:off x="8366760" y="728980"/>
           <a:ext cx="1350645" cy="381000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3737,8 +3737,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="370840" y="190500"/>
-          <a:ext cx="2179320" cy="579120"/>
+          <a:off x="370840" y="200025"/>
+          <a:ext cx="2179320" cy="617220"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3769,8 +3769,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9283700" y="367030"/>
-          <a:ext cx="1873250" cy="367030"/>
+          <a:off x="9283700" y="386080"/>
+          <a:ext cx="1873250" cy="386080"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -3848,8 +3848,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="370840" y="190500"/>
-          <a:ext cx="2079625" cy="579120"/>
+          <a:off x="370840" y="200025"/>
+          <a:ext cx="2079625" cy="617220"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3880,8 +3880,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1909445" y="4110355"/>
-          <a:ext cx="1506855" cy="357505"/>
+          <a:off x="1909445" y="4358005"/>
+          <a:ext cx="1506855" cy="386080"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -4100,8 +4100,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5835015" y="3573145"/>
-          <a:ext cx="2055495" cy="455930"/>
+          <a:off x="5835015" y="3773170"/>
+          <a:ext cx="2055495" cy="484505"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4132,8 +4132,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8566150" y="3462655"/>
-          <a:ext cx="971550" cy="533400"/>
+          <a:off x="8566150" y="3653155"/>
+          <a:ext cx="971550" cy="571500"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -4211,8 +4211,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8067040" y="609600"/>
-          <a:ext cx="1619885" cy="446405"/>
+          <a:off x="8067040" y="647700"/>
+          <a:ext cx="1619885" cy="494030"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4776,10 +4776,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="3C3E3C"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="F9FAF9"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -5064,7 +5064,7 @@
       <selection activeCell="AE13" sqref="AE13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28333333333333" defaultRowHeight="12"/>
+  <sheetFormatPr defaultColWidth="9.28333333333333" defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="2" width="4.70833333333333" style="127" customWidth="1"/>
     <col min="3" max="3" width="6.70833333333333" style="127" customWidth="1"/>
@@ -5546,7 +5546,7 @@
       <c r="AO13" s="128"/>
       <c r="AP13" s="128"/>
     </row>
-    <row r="14" ht="14.25" spans="1:42">
+    <row r="14" ht="13.5" spans="1:42">
       <c r="A14" s="128"/>
       <c r="B14" s="128"/>
       <c r="C14" s="128"/>
@@ -5590,7 +5590,7 @@
       <c r="AO14" s="128"/>
       <c r="AP14" s="128"/>
     </row>
-    <row r="15" ht="14.25" spans="1:42">
+    <row r="15" ht="13.5" spans="1:42">
       <c r="A15" s="128"/>
       <c r="B15" s="128"/>
       <c r="C15" s="128"/>
@@ -5637,7 +5637,7 @@
       <c r="AO15" s="128"/>
       <c r="AP15" s="128"/>
     </row>
-    <row r="16" customHeight="1" spans="1:42">
+    <row r="16" ht="12" customHeight="1" spans="1:42">
       <c r="A16" s="128"/>
       <c r="B16" s="128"/>
       <c r="C16" s="128"/>
@@ -5687,7 +5687,7 @@
       <c r="AO16" s="128"/>
       <c r="AP16" s="128"/>
     </row>
-    <row r="17" customHeight="1" spans="1:42">
+    <row r="17" ht="12" customHeight="1" spans="1:42">
       <c r="A17" s="128"/>
       <c r="B17" s="128"/>
       <c r="C17" s="128"/>
@@ -17454,7 +17454,7 @@
       <selection activeCell="H30" sqref="H30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
@@ -17470,7 +17470,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
@@ -17486,7 +17486,7 @@
       <selection activeCell="E12" sqref="E12:E31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.70833333333333" defaultRowHeight="12"/>
+  <sheetFormatPr defaultColWidth="8.70833333333333" defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="2" width="2.28333333333333" style="114" customWidth="1"/>
     <col min="3" max="4" width="9.28333333333333" style="115"/>
@@ -22189,7 +22189,7 @@
       <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.70833333333333" defaultRowHeight="12"/>
+  <sheetFormatPr defaultColWidth="8.70833333333333" defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="2" width="2.28333333333333" style="88" customWidth="1"/>
     <col min="3" max="4" width="8.70833333333333" style="89"/>
@@ -24372,7 +24372,7 @@
       <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.70833333333333" defaultRowHeight="12"/>
+  <sheetFormatPr defaultColWidth="8.70833333333333" defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="9" style="24" customWidth="1"/>
     <col min="2" max="2" width="16" style="24" customWidth="1"/>
@@ -25659,11 +25659,11 @@
   <sheetPr/>
   <dimension ref="B3:Q33"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.70833333333333" defaultRowHeight="12"/>
+  <sheetFormatPr defaultColWidth="8.70833333333333" defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="8.70833333333333" style="24"/>
     <col min="2" max="2" width="14" style="24" customWidth="1"/>
@@ -26246,11 +26246,11 @@
   <sheetPr/>
   <dimension ref="B5:Q84"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B63" workbookViewId="0">
+      <selection activeCell="B48" sqref="B48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.70833333333333" defaultRowHeight="12"/>
+  <sheetFormatPr defaultColWidth="8.70833333333333" defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="8.70833333333333" style="24"/>
     <col min="2" max="2" width="25.2833333333333" style="24" customWidth="1"/>
@@ -26291,7 +26291,7 @@
       <c r="O5" s="43"/>
       <c r="P5" s="43"/>
     </row>
-    <row r="6" ht="12.75" spans="2:16">
+    <row r="6" ht="15.75" spans="2:16">
       <c r="B6" s="27" t="s">
         <v>152</v>
       </c>
@@ -26373,7 +26373,7 @@
       <c r="O8" s="43"/>
       <c r="P8" s="43"/>
     </row>
-    <row r="9" ht="12.75" spans="2:16">
+    <row r="9" ht="15.75" spans="2:16">
       <c r="B9" s="29"/>
       <c r="C9" s="29"/>
       <c r="D9" s="31" t="s">
@@ -26423,7 +26423,7 @@
       <c r="O10" s="43"/>
       <c r="P10" s="43"/>
     </row>
-    <row r="11" ht="12.75" spans="2:16">
+    <row r="11" ht="15.75" spans="2:16">
       <c r="B11" s="29"/>
       <c r="C11" s="29"/>
       <c r="D11" s="31" t="s">
@@ -26607,7 +26607,7 @@
       <c r="O18" s="43"/>
       <c r="P18" s="43"/>
     </row>
-    <row r="19" ht="12.75" spans="2:16">
+    <row r="19" ht="15.75" spans="2:16">
       <c r="B19" s="29"/>
       <c r="C19" s="29"/>
       <c r="D19" s="31" t="s">
@@ -27080,7 +27080,7 @@
       <c r="E52" s="41"/>
       <c r="F52" s="41"/>
     </row>
-    <row r="53" ht="12.75" spans="2:6">
+    <row r="53" ht="15.75" spans="2:6">
       <c r="B53" s="33"/>
       <c r="C53" s="33"/>
       <c r="D53" s="40" t="s">
@@ -27269,7 +27269,7 @@
       </c>
       <c r="F69" s="41"/>
     </row>
-    <row r="70" ht="12.75" spans="2:6">
+    <row r="70" ht="15.75" spans="2:6">
       <c r="B70" s="29"/>
       <c r="C70" s="29"/>
       <c r="D70" s="31" t="s">
@@ -27300,7 +27300,7 @@
       </c>
       <c r="F72" s="41"/>
     </row>
-    <row r="73" ht="12.75" spans="2:6">
+    <row r="73" ht="15.75" spans="2:6">
       <c r="B73" s="29"/>
       <c r="C73" s="29"/>
       <c r="D73" s="31" t="s">
@@ -27523,7 +27523,7 @@
       <selection activeCell="AA12" sqref="Z12:AA12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
   <sheetData>
     <row r="3" spans="2:5">
       <c r="B3" s="7" t="s">
@@ -39044,7 +39044,7 @@
       <selection activeCell="C126" sqref="C126"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
   <sheetData>
     <row r="3" spans="2:10">
       <c r="B3" s="5" t="s">
@@ -44310,7 +44310,7 @@
       <selection activeCell="P30" sqref="P30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="5.70833333333333" defaultRowHeight="12"/>
+  <sheetFormatPr defaultColWidth="5.70833333333333" defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="5.70833333333333" style="1" customWidth="1"/>
     <col min="2" max="2" width="7" style="1" customWidth="1"/>

--- a/models/ist.xlsx
+++ b/models/ist.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="19035" windowHeight="7950" firstSheet="3" activeTab="5"/>
+    <workbookView windowWidth="19515" windowHeight="9135" firstSheet="1" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="LAYOUT" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1250" uniqueCount="310">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1257" uniqueCount="310">
   <si>
     <t>INTELLIGENCE STRUCTURE TEST</t>
   </si>
@@ -975,12 +975,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
+    <numFmt numFmtId="176" formatCode="0.0"/>
+    <numFmt numFmtId="177" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="176" formatCode="0.0"/>
+    <numFmt numFmtId="178" formatCode="dd\-mmm"/>
     <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="dd\-mmm"/>
-    <numFmt numFmtId="178" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="41">
     <font>
@@ -1123,37 +1123,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
@@ -1169,19 +1138,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1194,7 +1168,7 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -1203,21 +1177,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1238,8 +1197,48 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1252,16 +1251,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1336,7 +1336,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1348,31 +1486,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1384,121 +1498,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1713,6 +1713,32 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1731,8 +1757,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1741,37 +1767,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1793,166 +1789,170 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="38" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="14" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="14" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="22" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="38" borderId="25" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="16" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="15" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="14" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="14" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="24" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2014,10 +2014,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2158,7 +2158,7 @@
       <alignment horizontal="left" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="2" borderId="0" xfId="44" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="177" fontId="0" fillId="2" borderId="0" xfId="44" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection hidden="1"/>
     </xf>
@@ -2460,10 +2460,11 @@
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" quotePrefix="1"/>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1" quotePrefix="1">
@@ -2524,11 +2525,18 @@
     <cellStyle name="Percent" xfId="47" builtinId="5"/>
     <cellStyle name="Hyperlink" xfId="48" builtinId="8"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="2">
     <dxf>
       <fill>
         <patternFill patternType="solid">
           <bgColor theme="6" tint="0.399945066682943"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="6" tint="0.4"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2678,7 +2686,7 @@
                   <c:v>84</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>#N/A</c:v>
+                  <c:v>130</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>84</c:v>
@@ -2690,7 +2698,7 @@
                   <c:v>121</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>83</c:v>
+                  <c:v>132</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>87</c:v>
@@ -3473,8 +3481,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3779520" y="709930"/>
-          <a:ext cx="983615" cy="390525"/>
+          <a:off x="3322320" y="709930"/>
+          <a:ext cx="876300" cy="390525"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3541,8 +3549,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8366760" y="728980"/>
-          <a:ext cx="1350645" cy="381000"/>
+          <a:off x="7360920" y="728980"/>
+          <a:ext cx="1142365" cy="381000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3596,8 +3604,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4303395" y="3305810"/>
-          <a:ext cx="2065020" cy="381000"/>
+          <a:off x="3827145" y="3305810"/>
+          <a:ext cx="1800225" cy="381000"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -3658,8 +3666,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7056755" y="3315335"/>
-          <a:ext cx="2096135" cy="381000"/>
+          <a:off x="6227445" y="3315335"/>
+          <a:ext cx="1799590" cy="381000"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -3737,8 +3745,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="370840" y="200025"/>
-          <a:ext cx="2179320" cy="617220"/>
+          <a:off x="327660" y="200025"/>
+          <a:ext cx="1911350" cy="617220"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3769,8 +3777,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9283700" y="386080"/>
-          <a:ext cx="1873250" cy="386080"/>
+          <a:off x="8131810" y="386080"/>
+          <a:ext cx="1656715" cy="386080"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -3848,8 +3856,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="370840" y="200025"/>
-          <a:ext cx="2079625" cy="617220"/>
+          <a:off x="327660" y="200025"/>
+          <a:ext cx="1824990" cy="617220"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3880,8 +3888,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1909445" y="4358005"/>
-          <a:ext cx="1506855" cy="386080"/>
+          <a:off x="1699895" y="4358005"/>
+          <a:ext cx="1305560" cy="386080"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -3945,7 +3953,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="107950" y="2120900"/>
-        <a:ext cx="5294630" cy="3766820"/>
+        <a:ext cx="4619625" cy="3766820"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -3989,8 +3997,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5572125" y="241300"/>
-          <a:ext cx="2131060" cy="774700"/>
+          <a:off x="4875530" y="241300"/>
+          <a:ext cx="1872615" cy="774700"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4021,8 +4029,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6181725" y="5816600"/>
-          <a:ext cx="1534160" cy="647700"/>
+          <a:off x="5485130" y="5816600"/>
+          <a:ext cx="1275715" cy="647700"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -4100,8 +4108,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5835015" y="3773170"/>
-          <a:ext cx="2055495" cy="484505"/>
+          <a:off x="5202555" y="3773170"/>
+          <a:ext cx="1829435" cy="484505"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4132,7 +4140,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8566150" y="3653155"/>
+          <a:off x="7510145" y="3653155"/>
           <a:ext cx="971550" cy="571500"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
@@ -4211,8 +4219,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8067040" y="647700"/>
-          <a:ext cx="1619885" cy="494030"/>
+          <a:off x="7074535" y="647700"/>
+          <a:ext cx="1419860" cy="474980"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4240,18 +4248,13 @@
           <cell r="C1" t="str">
             <v>B</v>
           </cell>
-          <cell r="D1" t="str">
-            <v>C</v>
-          </cell>
-          <cell r="E1" t="str">
-            <v>B</v>
-          </cell>
+        </row>
+        <row r="1">
           <cell r="F1" t="str">
             <v>B</v>
           </cell>
-          <cell r="G1" t="str">
-            <v>B</v>
-          </cell>
+        </row>
+        <row r="1">
           <cell r="H1" t="str">
             <v>BD</v>
           </cell>
@@ -4268,15 +4271,6 @@
           </cell>
         </row>
         <row r="2">
-          <cell r="E2" t="str">
-            <v>C</v>
-          </cell>
-          <cell r="F2" t="str">
-            <v>CD</v>
-          </cell>
-          <cell r="G2" t="str">
-            <v>C</v>
-          </cell>
           <cell r="H2" t="str">
             <v>C</v>
           </cell>
@@ -4293,15 +4287,11 @@
           </cell>
         </row>
         <row r="3">
-          <cell r="E3" t="str">
-            <v>A</v>
-          </cell>
           <cell r="F3" t="str">
             <v>A</v>
           </cell>
-          <cell r="G3" t="str">
-            <v>A</v>
-          </cell>
+        </row>
+        <row r="3">
           <cell r="H3" t="str">
             <v>A</v>
           </cell>
@@ -4324,9 +4314,8 @@
           <cell r="F4" t="str">
             <v>B</v>
           </cell>
-          <cell r="G4" t="str">
-            <v>B</v>
-          </cell>
+        </row>
+        <row r="4">
           <cell r="H4" t="str">
             <v>B</v>
           </cell>
@@ -4349,13 +4338,9 @@
           <cell r="F5" t="str">
             <v>B</v>
           </cell>
-          <cell r="G5" t="str">
-            <v>B</v>
-          </cell>
+        </row>
+        <row r="5">
           <cell r="H5" t="str">
-            <v>B</v>
-          </cell>
-          <cell r="I5" t="str">
             <v>B</v>
           </cell>
         </row>
@@ -4374,9 +4359,8 @@
           <cell r="F6" t="str">
             <v>A</v>
           </cell>
-          <cell r="G6" t="str">
-            <v>A</v>
-          </cell>
+        </row>
+        <row r="6">
           <cell r="H6" t="str">
             <v>A</v>
           </cell>
@@ -4399,9 +4383,8 @@
           <cell r="F7" t="str">
             <v>B</v>
           </cell>
-          <cell r="G7" t="str">
-            <v>B</v>
-          </cell>
+        </row>
+        <row r="7">
           <cell r="H7" t="str">
             <v>B</v>
           </cell>
@@ -4424,9 +4407,8 @@
           <cell r="F8" t="str">
             <v>C</v>
           </cell>
-          <cell r="G8" t="str">
-            <v>C</v>
-          </cell>
+        </row>
+        <row r="8">
           <cell r="H8" t="str">
             <v>C</v>
           </cell>
@@ -4449,9 +4431,8 @@
           <cell r="F9" t="str">
             <v>D</v>
           </cell>
-          <cell r="G9" t="str">
-            <v>D</v>
-          </cell>
+        </row>
+        <row r="9">
           <cell r="H9" t="str">
             <v>D</v>
           </cell>
@@ -4474,13 +4455,9 @@
           <cell r="F10" t="str">
             <v>A</v>
           </cell>
-          <cell r="G10" t="str">
-            <v>A</v>
-          </cell>
+        </row>
+        <row r="10">
           <cell r="H10" t="str">
-            <v>A</v>
-          </cell>
-          <cell r="I10" t="str">
             <v>A</v>
           </cell>
         </row>
@@ -4493,15 +4470,11 @@
           </cell>
         </row>
         <row r="11">
-          <cell r="E11" t="str">
-            <v>C</v>
-          </cell>
           <cell r="F11" t="str">
             <v>C</v>
           </cell>
-          <cell r="G11" t="str">
-            <v>C</v>
-          </cell>
+        </row>
+        <row r="11">
           <cell r="H11" t="str">
             <v>C</v>
           </cell>
@@ -4524,9 +4497,8 @@
           <cell r="F12" t="str">
             <v>A</v>
           </cell>
-          <cell r="G12" t="str">
-            <v>A</v>
-          </cell>
+        </row>
+        <row r="12">
           <cell r="H12" t="str">
             <v>A</v>
           </cell>
@@ -4549,9 +4521,8 @@
           <cell r="F13" t="str">
             <v>D</v>
           </cell>
-          <cell r="G13" t="str">
-            <v>D</v>
-          </cell>
+        </row>
+        <row r="13">
           <cell r="H13" t="str">
             <v>D</v>
           </cell>
@@ -4574,9 +4545,8 @@
           <cell r="F14" t="str">
             <v>E</v>
           </cell>
-          <cell r="G14" t="str">
-            <v>E</v>
-          </cell>
+        </row>
+        <row r="14">
           <cell r="H14" t="str">
             <v>E</v>
           </cell>
@@ -4599,9 +4569,8 @@
           <cell r="F15" t="str">
             <v>E</v>
           </cell>
-          <cell r="G15" t="str">
-            <v>E</v>
-          </cell>
+        </row>
+        <row r="15">
           <cell r="H15" t="str">
             <v>E</v>
           </cell>
@@ -4624,9 +4593,8 @@
           <cell r="F16" t="str">
             <v>E</v>
           </cell>
-          <cell r="G16" t="str">
-            <v>E</v>
-          </cell>
+        </row>
+        <row r="16">
           <cell r="H16" t="str">
             <v>E</v>
           </cell>
@@ -4649,9 +4617,8 @@
           <cell r="F17" t="str">
             <v>E</v>
           </cell>
-          <cell r="G17" t="str">
-            <v>E</v>
-          </cell>
+        </row>
+        <row r="17">
           <cell r="H17" t="str">
             <v>E</v>
           </cell>
@@ -4674,9 +4641,8 @@
           <cell r="F18" t="str">
             <v>E</v>
           </cell>
-          <cell r="G18" t="str">
-            <v>E</v>
-          </cell>
+        </row>
+        <row r="18">
           <cell r="H18" t="str">
             <v>E</v>
           </cell>
@@ -4699,9 +4665,8 @@
           <cell r="F19" t="str">
             <v>D</v>
           </cell>
-          <cell r="G19" t="str">
-            <v>D</v>
-          </cell>
+        </row>
+        <row r="19">
           <cell r="H19" t="str">
             <v>D</v>
           </cell>
@@ -4724,9 +4689,8 @@
           <cell r="F20" t="str">
             <v>C</v>
           </cell>
-          <cell r="G20" t="str">
-            <v>C</v>
-          </cell>
+        </row>
+        <row r="20">
           <cell r="H20" t="str">
             <v>C</v>
           </cell>
@@ -4746,18 +4710,16 @@
           <cell r="C1">
             <v>20</v>
           </cell>
-          <cell r="D1">
-            <v>24</v>
-          </cell>
+        </row>
+        <row r="1">
           <cell r="E1">
             <v>15</v>
           </cell>
           <cell r="F1">
             <v>16</v>
           </cell>
-          <cell r="G1">
-            <v>17</v>
-          </cell>
+        </row>
+        <row r="1">
           <cell r="H1">
             <v>11</v>
           </cell>
@@ -5060,29 +5022,29 @@
   <sheetPr/>
   <dimension ref="A1:GI966"/>
   <sheetViews>
-    <sheetView topLeftCell="V7" workbookViewId="0">
-      <selection activeCell="AE13" sqref="AE13"/>
+    <sheetView topLeftCell="P5" workbookViewId="0">
+      <selection activeCell="AD28" sqref="AD28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28333333333333" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="9.28571428571429" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="2" width="4.70833333333333" style="127" customWidth="1"/>
-    <col min="3" max="3" width="6.70833333333333" style="127" customWidth="1"/>
-    <col min="4" max="4" width="9.28333333333333" style="127"/>
-    <col min="5" max="5" width="22.5666666666667" style="127" customWidth="1"/>
-    <col min="6" max="6" width="9.28333333333333" style="127" hidden="1" customWidth="1"/>
+    <col min="1" max="2" width="4.7047619047619" style="127" customWidth="1"/>
+    <col min="3" max="3" width="6.7047619047619" style="127" customWidth="1"/>
+    <col min="4" max="4" width="9.28571428571429" style="127"/>
+    <col min="5" max="5" width="22.5714285714286" style="127" customWidth="1"/>
+    <col min="6" max="6" width="9.28571428571429" style="127" hidden="1" customWidth="1"/>
     <col min="7" max="7" width="2" style="127" customWidth="1"/>
-    <col min="8" max="13" width="9.28333333333333" style="127"/>
+    <col min="8" max="13" width="9.28571428571429" style="127"/>
     <col min="14" max="14" width="2" style="127" hidden="1" customWidth="1"/>
-    <col min="15" max="15" width="12.5666666666667" style="127" customWidth="1"/>
-    <col min="16" max="25" width="9.28333333333333" style="127"/>
-    <col min="26" max="35" width="9.28333333333333" customWidth="1"/>
-    <col min="36" max="36" width="9.28333333333333" style="127" customWidth="1"/>
-    <col min="37" max="37" width="12.2833333333333" style="127" customWidth="1"/>
-    <col min="38" max="40" width="9.28333333333333" style="127" customWidth="1"/>
-    <col min="41" max="41" width="18.2833333333333" style="127" customWidth="1"/>
-    <col min="42" max="47" width="9.28333333333333" style="127" customWidth="1"/>
-    <col min="48" max="16384" width="9.28333333333333" style="127"/>
+    <col min="15" max="15" width="12.5619047619048" style="127" customWidth="1"/>
+    <col min="16" max="25" width="9.28571428571429" style="127"/>
+    <col min="26" max="35" width="9.28571428571429" customWidth="1"/>
+    <col min="36" max="36" width="9.28571428571429" style="127" customWidth="1"/>
+    <col min="37" max="37" width="12.2857142857143" style="127" customWidth="1"/>
+    <col min="38" max="40" width="9.28571428571429" style="127" customWidth="1"/>
+    <col min="41" max="41" width="18.2857142857143" style="127" customWidth="1"/>
+    <col min="42" max="47" width="9.28571428571429" style="127" customWidth="1"/>
+    <col min="48" max="16384" width="9.28571428571429" style="127"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:46">
@@ -5530,13 +5492,13 @@
       <c r="AD13" t="s">
         <v>10</v>
       </c>
-      <c r="AE13" t="e">
+      <c r="AE13">
         <f>'INPUT JAWABAN'!H80</f>
-        <v>#N/A</v>
+        <v>20</v>
       </c>
       <c r="AF13">
         <f>'INPUT TOTAL'!F22</f>
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="AJ13" s="159"/>
       <c r="AK13" s="128"/>
@@ -5663,9 +5625,9 @@
       <c r="W16" s="149" t="s">
         <v>14</v>
       </c>
-      <c r="X16" s="149" t="e">
+      <c r="X16" s="149">
         <f>AD27+AD28</f>
-        <v>#N/A</v>
+        <v>240</v>
       </c>
       <c r="Y16" s="149"/>
       <c r="AD16" t="s">
@@ -5673,11 +5635,11 @@
       </c>
       <c r="AE16">
         <f>'INPUT JAWABAN'!H146</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AF16">
         <f>'INPUT TOTAL'!I16</f>
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="AJ16" s="159"/>
       <c r="AK16" s="149"/>
@@ -5761,9 +5723,9 @@
       <c r="U18" s="159"/>
       <c r="V18" s="159"/>
       <c r="W18" s="149"/>
-      <c r="X18" s="160" t="e">
+      <c r="X18" s="160" t="str">
         <f>IF(X16&lt;X17,"&lt;   ",IF(X16&gt;X17,"&gt;   ","=   "))</f>
-        <v>#N/A</v>
+        <v>&gt;   </v>
       </c>
       <c r="Y18" s="149"/>
       <c r="AD18" t="s">
@@ -5814,9 +5776,9 @@
       <c r="AA19" t="s">
         <v>19</v>
       </c>
-      <c r="AB19" t="e">
+      <c r="AB19">
         <f>X16-X17</f>
-        <v>#N/A</v>
+        <v>48</v>
       </c>
       <c r="AJ19" s="159"/>
       <c r="AK19" s="149"/>
@@ -6329,17 +6291,17 @@
       <c r="AA27" t="s">
         <v>10</v>
       </c>
-      <c r="AB27" t="e">
+      <c r="AB27">
         <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AC27" t="e">
+        <v>20</v>
+      </c>
+      <c r="AC27">
         <f>IF($M$11="A",VLOOKUP(AB27,DATA!N39:O59,2),IF($M$11="B",VLOOKUP(AB27,DATA!AS224:AT244,2),IF($M$11="C",VLOOKUP(AB27,DATA!BX409:BY429,2),IF($M$11="D",VLOOKUP(AB27,DATA!DC594:DD614,2),IF($M$11="E",VLOOKUP(AB27,DATA!EH779:EI799,2),IF($M$11="F",VLOOKUP(AB27,DATA!FM964:FN984,2),IF($M$11="G",VLOOKUP(AB27,DATA!GR1149:GS1169,2),"ERR")))))))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AD27" t="e">
+        <v>124</v>
+      </c>
+      <c r="AD27">
         <f>IF($M$11="H",VLOOKUP(AB27,DATA!HW1334:HX1354,2),AC27)</f>
-        <v>#N/A</v>
+        <v>124</v>
       </c>
       <c r="AG27" t="s">
         <v>48</v>
@@ -6584,15 +6546,15 @@
       </c>
       <c r="AB30">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="AC30">
         <f>IF($M$11="A",VLOOKUP(AB30,DATA!Z39:AA59,2),IF($M$11="B",VLOOKUP(AB30,DATA!BE224:BF244,2),IF($M$11="C",VLOOKUP(AB30,DATA!CJ409:CK429,2),IF($M$11="D",VLOOKUP(AB30,DATA!DO594:DP614,2),IF($M$11="E",VLOOKUP(AB30,DATA!ET779:EU799,2),IF($M$11="F",VLOOKUP(AB30,DATA!FY964:FZ984,2),IF($M$11="G",VLOOKUP(AB30,DATA!HD1149:HE1169,2),"ERR")))))))</f>
-        <v>80</v>
+        <v>126</v>
       </c>
       <c r="AD30">
         <f>IF($M$11="H",VLOOKUP(AB30,DATA!II1334:IJ1354,2),AC30)</f>
-        <v>80</v>
+        <v>126</v>
       </c>
       <c r="AG30" t="s">
         <v>66</v>
@@ -6822,17 +6784,17 @@
       <c r="W33" s="149"/>
       <c r="X33" s="136"/>
       <c r="Y33" s="136"/>
-      <c r="AB33" t="e">
+      <c r="AB33">
         <f>SUM(AB24:AB32)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AC33" t="e">
+        <v>107</v>
+      </c>
+      <c r="AC33">
         <f>IF($M$11="A",VLOOKUP(AB33,DATA!AF39:AG218,2),IF($M$11="B",VLOOKUP(AB33,DATA!BK224:BL403,2),IF($M$11="C",VLOOKUP(AB33,DATA!CP409:CQ588,2),IF($M$11="D",VLOOKUP(AB33,DATA!DU594:DV773,2),IF($M$11="E",VLOOKUP(AB33,DATA!EZ779:FA958,2),IF($M$11="F",VLOOKUP(AB33,DATA!GE964:GF1143,2),IF($M$11="G",VLOOKUP(AB33,DATA!HJ1149:HK1328,2),"ERR")))))))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AD33" t="e">
+        <v>104</v>
+      </c>
+      <c r="AD33">
         <f>IF($M$11="H",VLOOKUP(AB33,DATA!IO1334:IP1513,2),AC33)</f>
-        <v>#N/A</v>
+        <v>104</v>
       </c>
       <c r="AJ33" s="159"/>
       <c r="AK33" s="149" t="s">
@@ -7076,9 +7038,9 @@
       <c r="AE37" t="s">
         <v>87</v>
       </c>
-      <c r="AG37" t="e">
+      <c r="AG37">
         <f>AVERAGE(AD24:AD32)</f>
-        <v>#N/A</v>
+        <v>104</v>
       </c>
       <c r="AJ37" s="159"/>
       <c r="AK37" s="149" t="s">
@@ -7335,9 +7297,9 @@
       <c r="AA40" t="s">
         <v>10</v>
       </c>
-      <c r="AB40" t="e">
+      <c r="AB40">
         <f t="shared" si="1"/>
-        <v>#N/A</v>
+        <v>124</v>
       </c>
       <c r="AC40" t="e">
         <f t="shared" si="2"/>
@@ -7600,7 +7562,7 @@
       </c>
       <c r="AB43">
         <f t="shared" si="1"/>
-        <v>80</v>
+        <v>126</v>
       </c>
       <c r="AC43" t="e">
         <f t="shared" si="2"/>
@@ -8232,9 +8194,9 @@
       <c r="AA52" t="s">
         <v>10</v>
       </c>
-      <c r="AB52" t="e">
+      <c r="AB52">
         <f t="shared" si="3"/>
-        <v>#N/A</v>
+        <v>124</v>
       </c>
       <c r="AC52" t="e">
         <f t="shared" si="4"/>
@@ -8429,7 +8391,7 @@
       </c>
       <c r="AB55">
         <f t="shared" si="3"/>
-        <v>80</v>
+        <v>126</v>
       </c>
       <c r="AC55" t="e">
         <f t="shared" si="4"/>
@@ -17482,44 +17444,44 @@
   <sheetPr/>
   <dimension ref="A7:AP190"/>
   <sheetViews>
-    <sheetView topLeftCell="I7" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12:E31"/>
+    <sheetView topLeftCell="T7" workbookViewId="0">
+      <selection activeCell="AK37" sqref="AK37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.70833333333333" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="8.7047619047619" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="2" width="2.28333333333333" style="114" customWidth="1"/>
-    <col min="3" max="4" width="9.28333333333333" style="115"/>
-    <col min="5" max="5" width="6.875" style="115" customWidth="1"/>
-    <col min="6" max="6" width="2.75" style="116" customWidth="1"/>
+    <col min="1" max="2" width="2.28571428571429" style="114" customWidth="1"/>
+    <col min="3" max="4" width="9.28571428571429" style="115"/>
+    <col min="5" max="5" width="6.87619047619048" style="115" customWidth="1"/>
+    <col min="6" max="6" width="2.75238095238095" style="116" customWidth="1"/>
     <col min="7" max="7" width="2" style="117" customWidth="1"/>
-    <col min="8" max="8" width="7.75" style="114" customWidth="1"/>
-    <col min="9" max="9" width="5.28333333333333" style="114" customWidth="1"/>
-    <col min="10" max="11" width="8.70833333333333" style="114"/>
-    <col min="12" max="12" width="3.70833333333333" style="114" customWidth="1"/>
-    <col min="13" max="13" width="8.70833333333333" style="114" customWidth="1"/>
+    <col min="8" max="8" width="7.75238095238095" style="114" customWidth="1"/>
+    <col min="9" max="9" width="5.28571428571429" style="114" customWidth="1"/>
+    <col min="10" max="11" width="8.7047619047619" style="114"/>
+    <col min="12" max="12" width="3.7047619047619" style="114" customWidth="1"/>
+    <col min="13" max="13" width="8.7047619047619" style="114" customWidth="1"/>
     <col min="14" max="14" width="5" style="114" customWidth="1"/>
-    <col min="15" max="16" width="8.70833333333333" style="114"/>
-    <col min="17" max="18" width="4.70833333333333" style="114" customWidth="1"/>
-    <col min="19" max="19" width="11.425" style="114" customWidth="1"/>
-    <col min="20" max="20" width="8.70833333333333" style="114"/>
-    <col min="21" max="21" width="8.70833333333333" style="114" customWidth="1"/>
-    <col min="22" max="22" width="5.28333333333333" style="114" customWidth="1"/>
-    <col min="23" max="23" width="4.70833333333333" style="114" customWidth="1"/>
+    <col min="15" max="16" width="8.7047619047619" style="114"/>
+    <col min="17" max="18" width="4.7047619047619" style="114" customWidth="1"/>
+    <col min="19" max="19" width="11.4285714285714" style="114" customWidth="1"/>
+    <col min="20" max="20" width="8.7047619047619" style="114"/>
+    <col min="21" max="21" width="8.7047619047619" style="114" customWidth="1"/>
+    <col min="22" max="22" width="5.28571428571429" style="114" customWidth="1"/>
+    <col min="23" max="23" width="4.7047619047619" style="114" customWidth="1"/>
     <col min="24" max="24" width="4" style="114" customWidth="1"/>
-    <col min="25" max="25" width="9.28333333333333" style="114" customWidth="1"/>
-    <col min="26" max="26" width="9.70833333333333" style="114" customWidth="1"/>
+    <col min="25" max="25" width="9.28571428571429" style="114" customWidth="1"/>
+    <col min="26" max="26" width="9.7047619047619" style="114" customWidth="1"/>
     <col min="27" max="27" width="2" style="114" customWidth="1"/>
-    <col min="28" max="28" width="5.5" style="114" customWidth="1"/>
-    <col min="29" max="29" width="4.28333333333333" style="114" customWidth="1"/>
-    <col min="30" max="30" width="8.70833333333333" style="114"/>
-    <col min="31" max="32" width="8.70833333333333" style="114" customWidth="1"/>
-    <col min="33" max="34" width="4.28333333333333" style="114" customWidth="1"/>
-    <col min="35" max="35" width="8.70833333333333" style="114"/>
-    <col min="36" max="37" width="8.70833333333333" style="114" customWidth="1"/>
-    <col min="38" max="38" width="7.70833333333333" style="114" customWidth="1"/>
-    <col min="39" max="39" width="4.56666666666667" style="114" customWidth="1"/>
-    <col min="40" max="16384" width="8.70833333333333" style="114"/>
+    <col min="28" max="28" width="5.5047619047619" style="114" customWidth="1"/>
+    <col min="29" max="29" width="4.28571428571429" style="114" customWidth="1"/>
+    <col min="30" max="30" width="8.7047619047619" style="114"/>
+    <col min="31" max="32" width="8.7047619047619" style="114" customWidth="1"/>
+    <col min="33" max="34" width="4.28571428571429" style="114" customWidth="1"/>
+    <col min="35" max="35" width="8.7047619047619" style="114"/>
+    <col min="36" max="37" width="8.7047619047619" style="114" customWidth="1"/>
+    <col min="38" max="38" width="7.7047619047619" style="114" customWidth="1"/>
+    <col min="39" max="39" width="4.56190476190476" style="114" customWidth="1"/>
+    <col min="40" max="16384" width="8.7047619047619" style="114"/>
   </cols>
   <sheetData>
     <row r="7" ht="14.25" customHeight="1" spans="3:14">
@@ -17677,17 +17639,15 @@
       <c r="T12" s="97" t="s">
         <v>103</v>
       </c>
-      <c r="U12" s="101" t="str">
-        <f>[1]Sheet!$D1</f>
-        <v>C</v>
+      <c r="U12" s="101">
+        <v>32</v>
       </c>
       <c r="V12" s="96"/>
       <c r="Y12" s="97">
         <v>1</v>
       </c>
-      <c r="Z12" s="101" t="str">
-        <f>[1]Sheet!$E1</f>
-        <v>B</v>
+      <c r="Z12" s="101" t="s">
+        <v>37</v>
       </c>
       <c r="AA12" s="100" t="str">
         <f>IF(Z12=35," ",IF(Z12=""," ","x"))</f>
@@ -17713,16 +17673,13 @@
       <c r="AI12" s="97">
         <v>1</v>
       </c>
-      <c r="AJ12" s="125" t="str">
-        <f>[1]Sheet!$G1</f>
-        <v>B</v>
-      </c>
+      <c r="AJ12" s="125"/>
       <c r="AK12" s="90" t="s">
         <v>31</v>
       </c>
       <c r="AL12" s="100" t="str">
         <f>IF(AJ12="A"," ",IF(AJ12="B","x",IF(AJ12="C","x",IF(AJ12="D","x",IF(AJ12="E","x",IF(AJ12=""," ","ERROR"))))))</f>
-        <v>x</v>
+        <v> </v>
       </c>
       <c r="AN12" s="97">
         <v>1</v>
@@ -17789,9 +17746,8 @@
       <c r="Y13" s="97">
         <v>2</v>
       </c>
-      <c r="Z13" s="101" t="str">
-        <f>[1]Sheet!$E2</f>
-        <v>C</v>
+      <c r="Z13" s="101" t="s">
+        <v>43</v>
       </c>
       <c r="AA13" s="100" t="str">
         <f>IF(Z13=280," ",IF(Z13=""," ","x"))</f>
@@ -17803,9 +17759,8 @@
       <c r="AD13" s="97">
         <v>2</v>
       </c>
-      <c r="AE13" s="101" t="str">
-        <f>[1]Sheet!$F2</f>
-        <v>CD</v>
+      <c r="AE13" s="101" t="s">
+        <v>43</v>
       </c>
       <c r="AF13" s="90">
         <v>25</v>
@@ -17817,10 +17772,7 @@
       <c r="AI13" s="97">
         <v>2</v>
       </c>
-      <c r="AJ13" s="125" t="str">
-        <f>[1]Sheet!$G2</f>
-        <v>C</v>
-      </c>
+      <c r="AJ13" s="125"/>
       <c r="AK13" s="90" t="s">
         <v>43</v>
       </c>
@@ -17897,9 +17849,8 @@
       <c r="Y14" s="97">
         <v>3</v>
       </c>
-      <c r="Z14" s="101" t="str">
-        <f>[1]Sheet!$E3</f>
-        <v>A</v>
+      <c r="Z14" s="101" t="s">
+        <v>43</v>
       </c>
       <c r="AA14" s="100" t="str">
         <f>IF(Z14=250," ",IF(Z14=""," ","x"))</f>
@@ -17925,16 +17876,13 @@
       <c r="AI14" s="97">
         <v>3</v>
       </c>
-      <c r="AJ14" s="125" t="str">
-        <f>[1]Sheet!$G3</f>
-        <v>A</v>
-      </c>
+      <c r="AJ14" s="125"/>
       <c r="AK14" s="90" t="s">
         <v>37</v>
       </c>
       <c r="AL14" s="100" t="str">
         <f>IF(AJ14="B"," ",IF(AJ14="A","x",IF(AJ14="C","x",IF(AJ14="D","x",IF(AJ14="E","x",IF(AJ14=""," ","ERROR"))))))</f>
-        <v>x</v>
+        <v> </v>
       </c>
       <c r="AN14" s="97">
         <v>3</v>
@@ -18043,16 +17991,13 @@
       <c r="AI15" s="97">
         <v>4</v>
       </c>
-      <c r="AJ15" s="125" t="str">
-        <f>[1]Sheet!$G4</f>
-        <v>B</v>
-      </c>
+      <c r="AJ15" s="125"/>
       <c r="AK15" s="90" t="s">
         <v>31</v>
       </c>
       <c r="AL15" s="100" t="str">
         <f>IF(AJ15="A"," ",IF(AJ15="B","x",IF(AJ15="C","x",IF(AJ15="D","x",IF(AJ15="E","x",IF(AJ15=""," ","ERROR"))))))</f>
-        <v>x</v>
+        <v> </v>
       </c>
       <c r="AN15" s="97">
         <v>4</v>
@@ -18161,16 +18106,13 @@
       <c r="AI16" s="97">
         <v>5</v>
       </c>
-      <c r="AJ16" s="125" t="str">
-        <f>[1]Sheet!$G5</f>
-        <v>B</v>
-      </c>
+      <c r="AJ16" s="125"/>
       <c r="AK16" s="90" t="s">
         <v>49</v>
       </c>
       <c r="AL16" s="100" t="str">
         <f>IF(AJ16="D"," ",IF(AJ16="A","x",IF(AJ16="B","x",IF(AJ16="C","x",IF(AJ16="E","x",IF(AJ16=""," ","ERROR"))))))</f>
-        <v>x</v>
+        <v> </v>
       </c>
       <c r="AN16" s="97">
         <v>5</v>
@@ -18279,16 +18221,13 @@
       <c r="AI17" s="97">
         <v>6</v>
       </c>
-      <c r="AJ17" s="125" t="str">
-        <f>[1]Sheet!$G6</f>
-        <v>A</v>
-      </c>
+      <c r="AJ17" s="125"/>
       <c r="AK17" s="90" t="s">
         <v>37</v>
       </c>
       <c r="AL17" s="100" t="str">
         <f>IF(AJ17="B"," ",IF(AJ17="A","x",IF(AJ17="C","x",IF(AJ17="D","x",IF(AJ17="E","x",IF(AJ17=""," ","ERROR"))))))</f>
-        <v>x</v>
+        <v> </v>
       </c>
       <c r="AN17" s="97">
         <v>6</v>
@@ -18397,16 +18336,13 @@
       <c r="AI18" s="97">
         <v>7</v>
       </c>
-      <c r="AJ18" s="125" t="str">
-        <f>[1]Sheet!$G7</f>
-        <v>B</v>
-      </c>
+      <c r="AJ18" s="125"/>
       <c r="AK18" s="90" t="s">
         <v>43</v>
       </c>
       <c r="AL18" s="100" t="str">
         <f>IF(AJ18="C"," ",IF(AJ18="A","x",IF(AJ18="B","x",IF(AJ18="D","x",IF(AJ18="E","x",IF(AJ18=""," ","ERROR"))))))</f>
-        <v>x</v>
+        <v> </v>
       </c>
       <c r="AN18" s="97">
         <v>7</v>
@@ -18473,9 +18409,8 @@
       <c r="T19" s="97">
         <v>5</v>
       </c>
-      <c r="U19" s="101" t="str">
-        <f>[1]Sheet!$I5</f>
-        <v>B</v>
+      <c r="U19" s="101" t="s">
+        <v>49</v>
       </c>
       <c r="V19" s="90" t="s">
         <v>43</v>
@@ -18515,16 +18450,13 @@
       <c r="AI19" s="97">
         <v>8</v>
       </c>
-      <c r="AJ19" s="125" t="str">
-        <f>[1]Sheet!$G8</f>
-        <v>C</v>
-      </c>
+      <c r="AJ19" s="125"/>
       <c r="AK19" s="90" t="s">
         <v>55</v>
       </c>
       <c r="AL19" s="100" t="str">
         <f>IF(AJ19="E"," ",IF(AJ19="A","x",IF(AJ19="B","x",IF(AJ19="C","x",IF(AJ19="D","x",IF(AJ19=""," ","ERROR"))))))</f>
-        <v>x</v>
+        <v> </v>
       </c>
       <c r="AN19" s="97">
         <v>8</v>
@@ -18633,16 +18565,13 @@
       <c r="AI20" s="97">
         <v>9</v>
       </c>
-      <c r="AJ20" s="125" t="str">
-        <f>[1]Sheet!$G9</f>
-        <v>D</v>
-      </c>
+      <c r="AJ20" s="125"/>
       <c r="AK20" s="90" t="s">
         <v>55</v>
       </c>
       <c r="AL20" s="100" t="str">
         <f>IF(AJ20="E"," ",IF(AJ20="A","x",IF(AJ20="B","x",IF(AJ20="C","x",IF(AJ20="D","x",IF(AJ20=""," ","ERROR"))))))</f>
-        <v>x</v>
+        <v> </v>
       </c>
       <c r="AN20" s="97">
         <v>9</v>
@@ -18751,16 +18680,13 @@
       <c r="AI21" s="97">
         <v>10</v>
       </c>
-      <c r="AJ21" s="125" t="str">
-        <f>[1]Sheet!$G10</f>
-        <v>A</v>
-      </c>
+      <c r="AJ21" s="125"/>
       <c r="AK21" s="90" t="s">
         <v>49</v>
       </c>
       <c r="AL21" s="100" t="str">
         <f>IF(AJ21="D"," ",IF(AJ21="A","x",IF(AJ21="B","x",IF(AJ21="C","x",IF(AJ21="E","x",IF(AJ21=""," ","ERROR"))))))</f>
-        <v>x</v>
+        <v> </v>
       </c>
       <c r="AN21" s="97">
         <v>10</v>
@@ -18841,9 +18767,8 @@
       <c r="Y22" s="97">
         <v>11</v>
       </c>
-      <c r="Z22" s="101" t="str">
-        <f>[1]Sheet!$E11</f>
-        <v>C</v>
+      <c r="Z22" s="101" t="s">
+        <v>43</v>
       </c>
       <c r="AA22" s="100" t="str">
         <f>IF(Z22=19," ",IF(Z22=""," ","x"))</f>
@@ -18869,16 +18794,13 @@
       <c r="AI22" s="97">
         <v>11</v>
       </c>
-      <c r="AJ22" s="125" t="str">
-        <f>[1]Sheet!$G11</f>
-        <v>C</v>
-      </c>
+      <c r="AJ22" s="125"/>
       <c r="AK22" s="90" t="s">
         <v>55</v>
       </c>
       <c r="AL22" s="100" t="str">
         <f>IF(AJ22="E"," ",IF(AJ22="A","x",IF(AJ22="B","x",IF(AJ22="C","x",IF(AJ22="D","x",IF(AJ22=""," ","ERROR"))))))</f>
-        <v>x</v>
+        <v> </v>
       </c>
       <c r="AN22" s="97">
         <v>11</v>
@@ -18987,16 +18909,13 @@
       <c r="AI23" s="97">
         <v>12</v>
       </c>
-      <c r="AJ23" s="125" t="str">
-        <f>[1]Sheet!$G12</f>
-        <v>A</v>
-      </c>
+      <c r="AJ23" s="125"/>
       <c r="AK23" s="90" t="s">
         <v>37</v>
       </c>
       <c r="AL23" s="100" t="str">
         <f>IF(AJ23="B"," ",IF(AJ23="A","x",IF(AJ23="C","x",IF(AJ23="D","x",IF(AJ23="E","x",IF(AJ23=""," ","ERROR"))))))</f>
-        <v>x</v>
+        <v> </v>
       </c>
       <c r="AN23" s="97">
         <v>12</v>
@@ -19063,9 +18982,8 @@
       <c r="T24" s="97">
         <v>10</v>
       </c>
-      <c r="U24" s="101" t="str">
-        <f>[1]Sheet!$I10</f>
-        <v>A</v>
+      <c r="U24" s="101" t="s">
+        <v>49</v>
       </c>
       <c r="V24" s="90" t="s">
         <v>37</v>
@@ -19105,10 +19023,7 @@
       <c r="AI24" s="97">
         <v>13</v>
       </c>
-      <c r="AJ24" s="125" t="str">
-        <f>[1]Sheet!$G13</f>
-        <v>D</v>
-      </c>
+      <c r="AJ24" s="125"/>
       <c r="AK24" s="90" t="s">
         <v>49</v>
       </c>
@@ -19223,16 +19138,13 @@
       <c r="AI25" s="97">
         <v>14</v>
       </c>
-      <c r="AJ25" s="125" t="str">
-        <f>[1]Sheet!$G14</f>
-        <v>E</v>
-      </c>
+      <c r="AJ25" s="125"/>
       <c r="AK25" s="90" t="s">
         <v>43</v>
       </c>
       <c r="AL25" s="100" t="str">
         <f>IF(AJ25="C"," ",IF(AJ25="A","x",IF(AJ25="B","x",IF(AJ25="D","x",IF(AJ25="E","x",IF(AJ25=""," ","ERROR"))))))</f>
-        <v>x</v>
+        <v> </v>
       </c>
       <c r="AN25" s="97">
         <v>14</v>
@@ -19341,16 +19253,13 @@
       <c r="AI26" s="97">
         <v>15</v>
       </c>
-      <c r="AJ26" s="125" t="str">
-        <f>[1]Sheet!$G15</f>
-        <v>E</v>
-      </c>
+      <c r="AJ26" s="125"/>
       <c r="AK26" s="90" t="s">
         <v>37</v>
       </c>
       <c r="AL26" s="100" t="str">
         <f>IF(AJ26="B"," ",IF(AJ26="A","x",IF(AJ26="C","x",IF(AJ26="D","x",IF(AJ26="E","x",IF(AJ26=""," ","ERROR"))))))</f>
-        <v>x</v>
+        <v> </v>
       </c>
       <c r="AN26" s="97">
         <v>15</v>
@@ -19459,16 +19368,13 @@
       <c r="AI27" s="97">
         <v>16</v>
       </c>
-      <c r="AJ27" s="125" t="str">
-        <f>[1]Sheet!$G16</f>
-        <v>E</v>
-      </c>
+      <c r="AJ27" s="125"/>
       <c r="AK27" s="90" t="s">
         <v>31</v>
       </c>
       <c r="AL27" s="100" t="str">
         <f>IF(AJ27="A"," ",IF(AJ27="B","x",IF(AJ27="C","x",IF(AJ27="D","x",IF(AJ27="E","x",IF(AJ27=""," ","ERROR"))))))</f>
-        <v>x</v>
+        <v> </v>
       </c>
       <c r="AN27" s="97">
         <v>16</v>
@@ -19577,16 +19483,13 @@
       <c r="AI28" s="97">
         <v>17</v>
       </c>
-      <c r="AJ28" s="125" t="str">
-        <f>[1]Sheet!$G17</f>
-        <v>E</v>
-      </c>
+      <c r="AJ28" s="125"/>
       <c r="AK28" s="90" t="s">
         <v>37</v>
       </c>
       <c r="AL28" s="100" t="str">
         <f>IF(AJ28="B"," ",IF(AJ28="A","x",IF(AJ28="C","x",IF(AJ28="D","x",IF(AJ28="E","x",IF(AJ28=""," ","ERROR"))))))</f>
-        <v>x</v>
+        <v> </v>
       </c>
       <c r="AN28" s="97">
         <v>17</v>
@@ -19695,16 +19598,13 @@
       <c r="AI29" s="97">
         <v>18</v>
       </c>
-      <c r="AJ29" s="125" t="str">
-        <f>[1]Sheet!$G18</f>
-        <v>E</v>
-      </c>
+      <c r="AJ29" s="125"/>
       <c r="AK29" s="90" t="s">
         <v>49</v>
       </c>
       <c r="AL29" s="100" t="str">
         <f>IF(AJ29="D"," ",IF(AJ29="A","x",IF(AJ29="B","x",IF(AJ29="C","x",IF(AJ29="E","x",IF(AJ29=""," ","ERROR"))))))</f>
-        <v>x</v>
+        <v> </v>
       </c>
       <c r="AN29" s="97">
         <v>18</v>
@@ -19813,16 +19713,13 @@
       <c r="AI30" s="97">
         <v>19</v>
       </c>
-      <c r="AJ30" s="125" t="str">
-        <f>[1]Sheet!$G19</f>
-        <v>D</v>
-      </c>
+      <c r="AJ30" s="125"/>
       <c r="AK30" s="90" t="s">
         <v>43</v>
       </c>
       <c r="AL30" s="100" t="str">
         <f>IF(AJ30="C"," ",IF(AJ30="A","x",IF(AJ30="B","x",IF(AJ30="D","x",IF(AJ30="E","x",IF(AJ30=""," ","ERROR"))))))</f>
-        <v>x</v>
+        <v> </v>
       </c>
       <c r="AN30" s="97">
         <v>19</v>
@@ -19931,10 +19828,7 @@
       <c r="AI31" s="97">
         <v>20</v>
       </c>
-      <c r="AJ31" s="125" t="str">
-        <f>[1]Sheet!$G20</f>
-        <v>C</v>
-      </c>
+      <c r="AJ31" s="125"/>
       <c r="AK31" s="90" t="s">
         <v>43</v>
       </c>
@@ -20026,7 +19920,7 @@
       </c>
       <c r="AJ32" s="120">
         <f>H146</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AK32" s="90"/>
       <c r="AL32" s="91"/>
@@ -20683,9 +20577,9 @@
       <c r="A80" s="88"/>
       <c r="B80" s="88"/>
       <c r="C80" s="114"/>
-      <c r="H80" s="88" t="e">
+      <c r="H80" s="88">
         <f>VLOOKUP(U12,DATA!A2:B34,2)</f>
-        <v>#N/A</v>
+        <v>20</v>
       </c>
       <c r="I80" s="88"/>
     </row>
@@ -21270,7 +21164,7 @@
       <c r="G127" s="114"/>
       <c r="H127" s="88">
         <f>IF(AJ13="C",1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I127" s="88"/>
     </row>
@@ -21424,7 +21318,7 @@
       <c r="G138" s="114"/>
       <c r="H138" s="88">
         <f>IF(AJ24="D",1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I138" s="88"/>
     </row>
@@ -21522,7 +21416,7 @@
       <c r="G145" s="114"/>
       <c r="H145" s="88">
         <f>IF(AJ31="C",1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I145" s="88"/>
     </row>
@@ -21536,7 +21430,7 @@
       <c r="G146" s="114"/>
       <c r="H146" s="88">
         <f>SUM(H126:H145)</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I146" s="88"/>
     </row>
@@ -22186,42 +22080,42 @@
   <dimension ref="A1:AP191"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.70833333333333" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="8.7047619047619" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="2" width="2.28333333333333" style="88" customWidth="1"/>
-    <col min="3" max="4" width="8.70833333333333" style="89"/>
-    <col min="5" max="5" width="9.28333333333333" style="89" customWidth="1"/>
+    <col min="1" max="2" width="2.28571428571429" style="88" customWidth="1"/>
+    <col min="3" max="4" width="8.7047619047619" style="89"/>
+    <col min="5" max="5" width="9.28571428571429" style="89" customWidth="1"/>
     <col min="6" max="6" width="6" style="90" customWidth="1"/>
-    <col min="7" max="7" width="5.85833333333333" style="91" customWidth="1"/>
+    <col min="7" max="7" width="5.85714285714286" style="91" customWidth="1"/>
     <col min="8" max="8" width="10" style="88" customWidth="1"/>
-    <col min="9" max="9" width="7.85833333333333" style="88" customWidth="1"/>
-    <col min="10" max="11" width="8.70833333333333" style="88"/>
-    <col min="12" max="12" width="3.70833333333333" style="88" customWidth="1"/>
-    <col min="13" max="13" width="8.70833333333333" style="88" customWidth="1"/>
-    <col min="14" max="14" width="7.14166666666667" style="88" customWidth="1"/>
-    <col min="15" max="16" width="8.70833333333333" style="88"/>
-    <col min="17" max="18" width="4.70833333333333" style="88" customWidth="1"/>
-    <col min="19" max="19" width="11.425" style="88" hidden="1" customWidth="1"/>
-    <col min="20" max="21" width="8.70833333333333" style="88"/>
-    <col min="22" max="22" width="5.28333333333333" style="88" hidden="1" customWidth="1"/>
-    <col min="23" max="23" width="4.70833333333333" style="88" customWidth="1"/>
+    <col min="9" max="9" width="7.85714285714286" style="88" customWidth="1"/>
+    <col min="10" max="11" width="8.7047619047619" style="88"/>
+    <col min="12" max="12" width="3.7047619047619" style="88" customWidth="1"/>
+    <col min="13" max="13" width="8.7047619047619" style="88" customWidth="1"/>
+    <col min="14" max="14" width="7.14285714285714" style="88" customWidth="1"/>
+    <col min="15" max="16" width="8.7047619047619" style="88"/>
+    <col min="17" max="18" width="4.7047619047619" style="88" customWidth="1"/>
+    <col min="19" max="19" width="11.4285714285714" style="88" hidden="1" customWidth="1"/>
+    <col min="20" max="21" width="8.7047619047619" style="88"/>
+    <col min="22" max="22" width="5.28571428571429" style="88" hidden="1" customWidth="1"/>
+    <col min="23" max="23" width="4.7047619047619" style="88" customWidth="1"/>
     <col min="24" max="24" width="4" style="88" customWidth="1"/>
-    <col min="25" max="25" width="9.28333333333333" style="88" customWidth="1"/>
-    <col min="26" max="26" width="9.70833333333333" style="88" customWidth="1"/>
-    <col min="27" max="27" width="4.70833333333333" style="88" customWidth="1"/>
-    <col min="28" max="28" width="0.283333333333333" style="88" hidden="1" customWidth="1"/>
-    <col min="29" max="29" width="4.28333333333333" style="88" customWidth="1"/>
-    <col min="30" max="31" width="8.70833333333333" style="88"/>
-    <col min="32" max="32" width="8.70833333333333" style="88" hidden="1" customWidth="1"/>
-    <col min="33" max="34" width="4.28333333333333" style="88" customWidth="1"/>
-    <col min="35" max="36" width="8.70833333333333" style="88"/>
-    <col min="37" max="37" width="8.70833333333333" style="88" hidden="1" customWidth="1"/>
-    <col min="38" max="38" width="7.70833333333333" style="88" customWidth="1"/>
-    <col min="39" max="39" width="4.56666666666667" style="88" customWidth="1"/>
-    <col min="40" max="16384" width="8.70833333333333" style="88"/>
+    <col min="25" max="25" width="9.28571428571429" style="88" customWidth="1"/>
+    <col min="26" max="26" width="9.7047619047619" style="88" customWidth="1"/>
+    <col min="27" max="27" width="4.7047619047619" style="88" customWidth="1"/>
+    <col min="28" max="28" width="0.285714285714286" style="88" hidden="1" customWidth="1"/>
+    <col min="29" max="29" width="4.28571428571429" style="88" customWidth="1"/>
+    <col min="30" max="31" width="8.7047619047619" style="88"/>
+    <col min="32" max="32" width="8.7047619047619" style="88" hidden="1" customWidth="1"/>
+    <col min="33" max="34" width="4.28571428571429" style="88" customWidth="1"/>
+    <col min="35" max="36" width="8.7047619047619" style="88"/>
+    <col min="37" max="37" width="8.7047619047619" style="88" hidden="1" customWidth="1"/>
+    <col min="38" max="38" width="7.7047619047619" style="88" customWidth="1"/>
+    <col min="39" max="39" width="4.56190476190476" style="88" customWidth="1"/>
+    <col min="40" max="16384" width="8.7047619047619" style="88"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
@@ -22514,8 +22408,7 @@
         <v>103</v>
       </c>
       <c r="I16" s="101">
-        <f>[1]Sheet1!$G$1</f>
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="J16" s="98"/>
       <c r="K16" s="98"/>
@@ -22774,12 +22667,11 @@
         <v>103</v>
       </c>
       <c r="E22" s="101">
-        <f>[1]Sheet1!$D$1</f>
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="F22" s="104">
         <f>VLOOKUP(E22,DATA!A2:B34,2)</f>
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="G22" s="100"/>
       <c r="H22" s="97" t="s">
@@ -24368,27 +24260,27 @@
   </sheetPr>
   <dimension ref="A1:AH34"/>
   <sheetViews>
-    <sheetView zoomScale="75" zoomScaleNormal="75" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.70833333333333" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="8.7047619047619" defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="9" style="24" customWidth="1"/>
     <col min="2" max="2" width="16" style="24" customWidth="1"/>
-    <col min="3" max="3" width="2.56666666666667" style="24" customWidth="1"/>
-    <col min="4" max="4" width="26.425" style="24" customWidth="1"/>
-    <col min="5" max="5" width="10.5666666666667" style="24" customWidth="1"/>
-    <col min="6" max="6" width="6.28333333333333" style="24" customWidth="1"/>
-    <col min="7" max="7" width="2.28333333333333" style="24" customWidth="1"/>
-    <col min="8" max="8" width="10.5666666666667" style="24" customWidth="1"/>
-    <col min="9" max="9" width="6.28333333333333" style="24" customWidth="1"/>
-    <col min="10" max="10" width="10.2833333333333" style="24" customWidth="1"/>
-    <col min="11" max="11" width="1.56666666666667" style="24" customWidth="1"/>
-    <col min="12" max="12" width="8.70833333333333" style="24"/>
-    <col min="13" max="13" width="17.7083333333333" style="24" customWidth="1"/>
-    <col min="14" max="14" width="20.7083333333333" style="24" customWidth="1"/>
-    <col min="15" max="16384" width="8.70833333333333" style="24"/>
+    <col min="3" max="3" width="2.56190476190476" style="24" customWidth="1"/>
+    <col min="4" max="4" width="26.4285714285714" style="24" customWidth="1"/>
+    <col min="5" max="5" width="10.5619047619048" style="24" customWidth="1"/>
+    <col min="6" max="6" width="6.28571428571429" style="24" customWidth="1"/>
+    <col min="7" max="7" width="2.28571428571429" style="24" customWidth="1"/>
+    <col min="8" max="8" width="10.5619047619048" style="24" customWidth="1"/>
+    <col min="9" max="9" width="6.28571428571429" style="24" customWidth="1"/>
+    <col min="10" max="10" width="10.2857142857143" style="24" customWidth="1"/>
+    <col min="11" max="11" width="1.57142857142857" style="24" customWidth="1"/>
+    <col min="12" max="12" width="8.7047619047619" style="24"/>
+    <col min="13" max="13" width="17.7047619047619" style="24" customWidth="1"/>
+    <col min="14" max="14" width="20.7047619047619" style="24" customWidth="1"/>
+    <col min="15" max="16384" width="8.7047619047619" style="24"/>
   </cols>
   <sheetData>
     <row r="1" ht="21" customHeight="1" spans="1:10">
@@ -24903,37 +24795,37 @@
       <c r="S13" s="87" t="s">
         <v>10</v>
       </c>
-      <c r="T13" s="41" t="e">
+      <c r="T13" s="41">
         <f>VLOOKUP(I14,NORMA!K7:L27,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="U13" s="41" t="e">
+        <v>132</v>
+      </c>
+      <c r="U13" s="166" t="str">
         <f>VLOOKUP(I14,NORMA!K34:L54,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="V13" s="41" t="e">
+        <v>-</v>
+      </c>
+      <c r="V13" s="41">
         <f>VLOOKUP(I14,NORMA!K61:L81,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="W13" s="41" t="e">
+        <v>132</v>
+      </c>
+      <c r="W13" s="41">
         <f>VLOOKUP(I14,NORMA!K88:L108,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="X13" s="41" t="e">
+        <v>130</v>
+      </c>
+      <c r="X13" s="41">
         <f>VLOOKUP(I14,NORMA!K115:L135,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="Y13" s="41" t="e">
+        <v>131</v>
+      </c>
+      <c r="Y13" s="41">
         <f>VLOOKUP(I14,NORMA!K142:L162,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="Z13" s="41" t="e">
+        <v>127</v>
+      </c>
+      <c r="Z13" s="41">
         <f>VLOOKUP(I14,NORMA!K169:L189,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AA13" s="41" t="e">
+        <v>125</v>
+      </c>
+      <c r="AA13" s="41">
         <f>VLOOKUP(I14,NORMA!K196:L216,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>124</v>
       </c>
       <c r="AB13" s="41"/>
       <c r="AC13" s="43"/>
@@ -24954,17 +24846,17 @@
       <c r="H14" s="79" t="s">
         <v>10</v>
       </c>
-      <c r="I14" s="82" t="e">
+      <c r="I14" s="82">
         <f>LAYOUT!AB27</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J14" s="82" t="e">
+        <v>20</v>
+      </c>
+      <c r="J14" s="82">
         <f>IF(O9=12,T13,IF(O9=13,U13,IF(O9=14,V13,IF(O9=15,W13,IF(O9=16,X13,IF(O9=17,Y13,IF(O9=18,Z13,IF(O9=19,AA13,eror))))))))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="M14" s="85" t="e">
+        <v>130</v>
+      </c>
+      <c r="M14" s="85" t="str">
         <f t="shared" si="0"/>
-        <v>#N/A</v>
+        <v>Kekuatan</v>
       </c>
       <c r="O14" s="41"/>
       <c r="P14" s="41"/>
@@ -25185,35 +25077,35 @@
       </c>
       <c r="T17" s="41">
         <f>VLOOKUP(I18,NORMA!W7:X27,2,FALSE)</f>
-        <v>84</v>
-      </c>
-      <c r="U17" s="41">
+        <v>134</v>
+      </c>
+      <c r="U17" s="166" t="str">
         <f>VLOOKUP(I18,NORMA!W34:X54,2,FALSE)</f>
-        <v>85</v>
+        <v>-</v>
       </c>
       <c r="V17" s="41">
         <f>VLOOKUP(I18,NORMA!W61:X81,2,FALSE)</f>
-        <v>83</v>
+        <v>131</v>
       </c>
       <c r="W17" s="41">
         <f>VLOOKUP(I18,NORMA!W88:X108,2,FALSE)</f>
-        <v>83</v>
+        <v>132</v>
       </c>
       <c r="X17" s="41">
         <f>VLOOKUP(I18,NORMA!W115:X135,2,FALSE)</f>
-        <v>83</v>
+        <v>130</v>
       </c>
       <c r="Y17" s="41">
         <f>VLOOKUP(I18,NORMA!W142:X162,2,FALSE)</f>
-        <v>82</v>
+        <v>129</v>
       </c>
       <c r="Z17" s="41">
         <f>VLOOKUP(I18,NORMA!W169:X189,2,FALSE)</f>
-        <v>80</v>
+        <v>130</v>
       </c>
       <c r="AA17" s="41">
         <f>VLOOKUP(I18,NORMA!W196:X216,2,FALSE)</f>
-        <v>80</v>
+        <v>126</v>
       </c>
       <c r="AB17" s="41"/>
       <c r="AC17" s="43"/>
@@ -25236,15 +25128,15 @@
       </c>
       <c r="I18" s="82">
         <f>LAYOUT!AB30</f>
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="J18" s="82">
         <f>IF(O9=12,T17,IF(O9=13,U17,IF(O9=14,V17,IF(O9=15,W17,IF(O9=16,X17,IF(O9=17,Y17,IF(O9=18,Z17,IF(O9=19,AA17,eror))))))))</f>
-        <v>83</v>
+        <v>132</v>
       </c>
       <c r="M18" s="85" t="str">
         <f t="shared" si="0"/>
-        <v>Kelemahan</v>
+        <v>Kekuatan</v>
       </c>
       <c r="O18" s="41"/>
       <c r="P18" s="41"/>
@@ -25350,50 +25242,50 @@
       <c r="H20" s="79" t="s">
         <v>117</v>
       </c>
-      <c r="I20" s="82" t="e">
+      <c r="I20" s="82">
         <f>LAYOUT!AB33</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J20" s="82" t="e">
+        <v>107</v>
+      </c>
+      <c r="J20" s="82">
         <f>IF(O9=12,T20,IF(O9=13,U20,IF(O9=14,V20,IF(O9=15,W20,IF(O9=16,X20,IF(O9=17,Y20,IF(O9=18,Z20,IF(O9=19,AA20,eror))))))))</f>
-        <v>#N/A</v>
+        <v>114</v>
       </c>
       <c r="O20" s="41"/>
       <c r="P20" s="41"/>
       <c r="Q20" s="43"/>
       <c r="R20" s="41"/>
       <c r="S20" s="41"/>
-      <c r="T20" s="41" t="e">
+      <c r="T20" s="41">
         <f>VLOOKUP(I20,gesamt!B4:J183,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="U20" s="41" t="e">
+        <v>127</v>
+      </c>
+      <c r="U20" s="41">
         <f>VLOOKUP(I20,gesamt!B4:J183,3,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="V20" s="41" t="e">
+        <v>122</v>
+      </c>
+      <c r="V20" s="41">
         <f>VLOOKUP(I20,gesamt!B4:J183,4,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="W20" s="41" t="e">
+        <v>118</v>
+      </c>
+      <c r="W20" s="41">
         <f>VLOOKUP(I20,gesamt!B4:J183,5,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="X20" s="41" t="e">
+        <v>114</v>
+      </c>
+      <c r="X20" s="41">
         <f>VLOOKUP(I20,gesamt!B4:J183,6,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="Y20" s="41" t="e">
+        <v>110</v>
+      </c>
+      <c r="Y20" s="41">
         <f>VLOOKUP(I20,gesamt!B4:J183,7,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="Z20" s="41" t="e">
+        <v>107</v>
+      </c>
+      <c r="Z20" s="41">
         <f>VLOOKUP(I20,gesamt!B4:J183,8,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AA20" s="41" t="e">
+        <v>106</v>
+      </c>
+      <c r="AA20" s="41">
         <f>VLOOKUP(I20,gesamt!B4:J183,9,FALSE)</f>
-        <v>#N/A</v>
+        <v>104</v>
       </c>
       <c r="AB20" s="41"/>
       <c r="AC20" s="43"/>
@@ -25415,9 +25307,9 @@
       <c r="I21" s="82" t="s">
         <v>118</v>
       </c>
-      <c r="J21" s="83" t="e">
+      <c r="J21" s="83">
         <f>VLOOKUP(J20,DATA!A64:B146,2)</f>
-        <v>#N/A</v>
+        <v>121</v>
       </c>
       <c r="O21" s="41"/>
       <c r="P21" s="41"/>
@@ -25660,23 +25552,23 @@
   <dimension ref="B3:Q33"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.70833333333333" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="8.7047619047619" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="8.70833333333333" style="24"/>
+    <col min="1" max="1" width="8.7047619047619" style="24"/>
     <col min="2" max="2" width="14" style="24" customWidth="1"/>
-    <col min="3" max="7" width="8.70833333333333" style="24"/>
-    <col min="8" max="8" width="23.7083333333333" style="24" customWidth="1"/>
-    <col min="9" max="9" width="20.7083333333333" style="24" customWidth="1"/>
-    <col min="10" max="10" width="20.2833333333333" style="24" customWidth="1"/>
-    <col min="11" max="11" width="7.425" style="24" customWidth="1"/>
+    <col min="3" max="7" width="8.7047619047619" style="24"/>
+    <col min="8" max="8" width="23.7047619047619" style="24" customWidth="1"/>
+    <col min="9" max="9" width="20.7047619047619" style="24" customWidth="1"/>
+    <col min="10" max="10" width="20.2857142857143" style="24" customWidth="1"/>
+    <col min="11" max="11" width="7.42857142857143" style="24" customWidth="1"/>
     <col min="12" max="12" width="17" style="24" customWidth="1"/>
     <col min="13" max="13" width="18" style="24" customWidth="1"/>
-    <col min="14" max="14" width="17.7083333333333" style="24" customWidth="1"/>
+    <col min="14" max="14" width="17.7047619047619" style="24" customWidth="1"/>
     <col min="15" max="15" width="15" style="24" customWidth="1"/>
-    <col min="16" max="16384" width="8.70833333333333" style="24"/>
+    <col min="16" max="16384" width="8.7047619047619" style="24"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:5">
@@ -25788,9 +25680,9 @@
       <c r="C8" s="42" t="s">
         <v>10</v>
       </c>
-      <c r="D8" s="41" t="e">
+      <c r="D8" s="41">
         <f>VIEW!J14</f>
-        <v>#N/A</v>
+        <v>130</v>
       </c>
       <c r="E8" s="51"/>
       <c r="G8" s="53">
@@ -25890,7 +25782,7 @@
       </c>
       <c r="D12" s="41">
         <f>VIEW!J18</f>
-        <v>83</v>
+        <v>132</v>
       </c>
       <c r="E12" s="51"/>
       <c r="G12" s="53">
@@ -25899,13 +25791,13 @@
       <c r="H12" s="54" t="s">
         <v>132</v>
       </c>
-      <c r="I12" s="63" t="e">
+      <c r="I12" s="63" t="str">
         <f>IF(NOT(AND(D6&gt;100,D8&gt;100)),"X"," ")</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J12" s="64" t="e">
+        <v>X</v>
+      </c>
+      <c r="J12" s="64" t="str">
         <f>IF(AND(D6&gt;100,D8&gt;100),"X"," ")</f>
-        <v>#N/A</v>
+        <v> </v>
       </c>
     </row>
     <row r="13" spans="2:10">
@@ -25978,13 +25870,13 @@
       <c r="E17" s="51"/>
       <c r="F17" s="43"/>
       <c r="G17" s="43"/>
-      <c r="H17" s="60" t="e">
+      <c r="H17" s="60" t="str">
         <f>IF(NOT(SUM(D7,D11)&gt;SUM(D8,D10)),"X"," ")</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I17" s="70" t="e">
+        <v>X</v>
+      </c>
+      <c r="I17" s="70" t="str">
         <f>IF(SUM(D7,D11)&gt;SUM(D8,D10),"X"," ")</f>
-        <v>#N/A</v>
+        <v> </v>
       </c>
       <c r="J17" s="43"/>
       <c r="K17" s="43"/>
@@ -26246,22 +26138,22 @@
   <sheetPr/>
   <dimension ref="B5:Q84"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B63" workbookViewId="0">
-      <selection activeCell="B48" sqref="B48"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="C41" sqref="C41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.70833333333333" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="8.7047619047619" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="8.70833333333333" style="24"/>
-    <col min="2" max="2" width="25.2833333333333" style="24" customWidth="1"/>
-    <col min="3" max="3" width="36.7083333333333" style="24" customWidth="1"/>
-    <col min="4" max="4" width="24.7083333333333" style="24" customWidth="1"/>
-    <col min="5" max="5" width="8.70833333333333" style="24"/>
-    <col min="6" max="6" width="8.70833333333333" style="24" customWidth="1"/>
-    <col min="7" max="7" width="12.2833333333333" style="24" customWidth="1"/>
+    <col min="1" max="1" width="8.7047619047619" style="24"/>
+    <col min="2" max="2" width="25.2857142857143" style="24" customWidth="1"/>
+    <col min="3" max="3" width="36.7047619047619" style="24" customWidth="1"/>
+    <col min="4" max="4" width="24.7047619047619" style="24" customWidth="1"/>
+    <col min="5" max="5" width="8.7047619047619" style="24"/>
+    <col min="6" max="6" width="8.7047619047619" style="24" customWidth="1"/>
+    <col min="7" max="7" width="12.2857142857143" style="24" customWidth="1"/>
     <col min="8" max="8" width="11" style="24" customWidth="1"/>
-    <col min="9" max="9" width="13.425" style="24" customWidth="1"/>
-    <col min="10" max="16384" width="8.70833333333333" style="24"/>
+    <col min="9" max="9" width="13.4285714285714" style="24" customWidth="1"/>
+    <col min="10" max="16384" width="8.7047619047619" style="24"/>
   </cols>
   <sheetData>
     <row r="5" spans="2:16">
@@ -26291,7 +26183,7 @@
       <c r="O5" s="43"/>
       <c r="P5" s="43"/>
     </row>
-    <row r="6" ht="15.75" spans="2:16">
+    <row r="6" ht="14.25" spans="2:16">
       <c r="B6" s="27" t="s">
         <v>152</v>
       </c>
@@ -26373,7 +26265,7 @@
       <c r="O8" s="43"/>
       <c r="P8" s="43"/>
     </row>
-    <row r="9" ht="15.75" spans="2:16">
+    <row r="9" ht="14.25" spans="2:16">
       <c r="B9" s="29"/>
       <c r="C9" s="29"/>
       <c r="D9" s="31" t="s">
@@ -26383,9 +26275,9 @@
       <c r="F9" s="42" t="s">
         <v>10</v>
       </c>
-      <c r="G9" s="41" t="e">
+      <c r="G9" s="41">
         <f>LAYOUT!AD27</f>
-        <v>#N/A</v>
+        <v>124</v>
       </c>
       <c r="H9" s="41"/>
       <c r="I9" s="41"/>
@@ -26423,7 +26315,7 @@
       <c r="O10" s="43"/>
       <c r="P10" s="43"/>
     </row>
-    <row r="11" ht="15.75" spans="2:16">
+    <row r="11" ht="14.25" spans="2:16">
       <c r="B11" s="29"/>
       <c r="C11" s="29"/>
       <c r="D11" s="31" t="s">
@@ -26487,7 +26379,7 @@
       </c>
       <c r="G13" s="41">
         <f>LAYOUT!AD30</f>
-        <v>80</v>
+        <v>126</v>
       </c>
       <c r="H13" s="41"/>
       <c r="I13" s="41"/>
@@ -26607,7 +26499,7 @@
       <c r="O18" s="43"/>
       <c r="P18" s="43"/>
     </row>
-    <row r="19" ht="15.75" spans="2:16">
+    <row r="19" ht="14.25" spans="2:16">
       <c r="B19" s="29"/>
       <c r="C19" s="29"/>
       <c r="D19" s="31" t="s">
@@ -26799,9 +26691,9 @@
       <c r="E28" s="41" t="s">
         <v>140</v>
       </c>
-      <c r="F28" s="49" t="e">
+      <c r="F28" s="49" t="str">
         <f>IF(AND(G6&lt;100,G7&lt;100,G8&lt;100,G9&lt;100,G10&lt;100,G11&lt;100,G12&lt;100,G13&lt;100,G14&lt;100),"Catatan : Jika pengkategorian nilai SW tidak sesuai dengan acuan bidang keilmuan yang terdapat pada software ini, maka silahkan cek alat tes lain"," ")</f>
-        <v>#N/A</v>
+        <v> </v>
       </c>
       <c r="G28" s="49"/>
       <c r="H28" s="49"/>
@@ -27080,7 +26972,7 @@
       <c r="E52" s="41"/>
       <c r="F52" s="41"/>
     </row>
-    <row r="53" ht="15.75" spans="2:6">
+    <row r="53" ht="14.25" spans="2:6">
       <c r="B53" s="33"/>
       <c r="C53" s="33"/>
       <c r="D53" s="40" t="s">
@@ -27269,7 +27161,7 @@
       </c>
       <c r="F69" s="41"/>
     </row>
-    <row r="70" ht="15.75" spans="2:6">
+    <row r="70" ht="14.25" spans="2:6">
       <c r="B70" s="29"/>
       <c r="C70" s="29"/>
       <c r="D70" s="31" t="s">
@@ -27300,7 +27192,7 @@
       </c>
       <c r="F72" s="41"/>
     </row>
-    <row r="73" ht="15.75" spans="2:6">
+    <row r="73" ht="14.25" spans="2:6">
       <c r="B73" s="29"/>
       <c r="C73" s="29"/>
       <c r="D73" s="31" t="s">
@@ -27463,7 +27355,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C41:D44">
-    <cfRule type="expression" dxfId="0" priority="36">
+    <cfRule type="expression" dxfId="1" priority="36">
       <formula>AND(+$G$13&gt;100,$G$11&gt;100,$G$12&gt;100)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -28688,7 +28580,7 @@
       <c r="AA23" s="13">
         <v>89</v>
       </c>
-      <c r="AC23" s="166" t="s">
+      <c r="AC23" s="167" t="s">
         <v>268</v>
       </c>
       <c r="AD23" s="14">
@@ -28750,7 +28642,7 @@
       <c r="AA24" s="13">
         <v>86</v>
       </c>
-      <c r="AC24" s="167" t="s">
+      <c r="AC24" s="168" t="s">
         <v>269</v>
       </c>
       <c r="AD24" s="16">
@@ -29060,43 +28952,43 @@
       <c r="H34" s="18">
         <v>20</v>
       </c>
-      <c r="I34" s="168" t="s">
+      <c r="I34" s="169" t="s">
         <v>271</v>
       </c>
       <c r="K34" s="12">
         <v>20</v>
       </c>
-      <c r="L34" s="169" t="s">
+      <c r="L34" s="170" t="s">
         <v>271</v>
       </c>
       <c r="N34" s="12">
         <v>20</v>
       </c>
-      <c r="O34" s="169" t="s">
+      <c r="O34" s="170" t="s">
         <v>271</v>
       </c>
       <c r="Q34" s="12">
         <v>20</v>
       </c>
-      <c r="R34" s="169" t="s">
+      <c r="R34" s="170" t="s">
         <v>271</v>
       </c>
       <c r="T34" s="12">
         <v>20</v>
       </c>
-      <c r="U34" s="169" t="s">
+      <c r="U34" s="170" t="s">
         <v>271</v>
       </c>
       <c r="W34" s="12">
         <v>20</v>
       </c>
-      <c r="X34" s="169" t="s">
+      <c r="X34" s="170" t="s">
         <v>271</v>
       </c>
       <c r="Z34" s="12">
         <v>20</v>
       </c>
-      <c r="AA34" s="169" t="s">
+      <c r="AA34" s="170" t="s">
         <v>271</v>
       </c>
       <c r="AC34" s="12" t="s">
@@ -29122,13 +29014,13 @@
       <c r="H35" s="12">
         <v>19</v>
       </c>
-      <c r="I35" s="169" t="s">
+      <c r="I35" s="170" t="s">
         <v>271</v>
       </c>
       <c r="K35" s="12">
         <v>19</v>
       </c>
-      <c r="L35" s="169" t="s">
+      <c r="L35" s="170" t="s">
         <v>271</v>
       </c>
       <c r="N35" s="12">
@@ -29140,13 +29032,13 @@
       <c r="Q35" s="12">
         <v>19</v>
       </c>
-      <c r="R35" s="169" t="s">
+      <c r="R35" s="170" t="s">
         <v>271</v>
       </c>
       <c r="T35" s="12">
         <v>19</v>
       </c>
-      <c r="U35" s="169" t="s">
+      <c r="U35" s="170" t="s">
         <v>271</v>
       </c>
       <c r="W35" s="12">
@@ -29184,13 +29076,13 @@
       <c r="H36" s="12">
         <v>18</v>
       </c>
-      <c r="I36" s="169" t="s">
+      <c r="I36" s="170" t="s">
         <v>271</v>
       </c>
       <c r="K36" s="12">
         <v>18</v>
       </c>
-      <c r="L36" s="169" t="s">
+      <c r="L36" s="170" t="s">
         <v>271</v>
       </c>
       <c r="N36" s="12">
@@ -29202,7 +29094,7 @@
       <c r="Q36" s="12">
         <v>18</v>
       </c>
-      <c r="R36" s="169" t="s">
+      <c r="R36" s="170" t="s">
         <v>271</v>
       </c>
       <c r="T36" s="12">
@@ -29246,13 +29138,13 @@
       <c r="H37" s="12">
         <v>17</v>
       </c>
-      <c r="I37" s="169" t="s">
+      <c r="I37" s="170" t="s">
         <v>271</v>
       </c>
       <c r="K37" s="12">
         <v>17</v>
       </c>
-      <c r="L37" s="169" t="s">
+      <c r="L37" s="170" t="s">
         <v>271</v>
       </c>
       <c r="N37" s="12">
@@ -29308,7 +29200,7 @@
       <c r="H38" s="12">
         <v>16</v>
       </c>
-      <c r="I38" s="169" t="s">
+      <c r="I38" s="170" t="s">
         <v>271</v>
       </c>
       <c r="K38" s="12">
@@ -30091,7 +29983,7 @@
       <c r="AA50" s="13">
         <v>88</v>
       </c>
-      <c r="AC50" s="166" t="s">
+      <c r="AC50" s="167" t="s">
         <v>268</v>
       </c>
       <c r="AD50" s="14">
@@ -30153,7 +30045,7 @@
       <c r="AA51" s="13">
         <v>84</v>
       </c>
-      <c r="AC51" s="167" t="s">
+      <c r="AC51" s="168" t="s">
         <v>269</v>
       </c>
       <c r="AD51" s="16">
@@ -31494,7 +31386,7 @@
       <c r="AA77" s="13">
         <v>85</v>
       </c>
-      <c r="AC77" s="166" t="s">
+      <c r="AC77" s="167" t="s">
         <v>268</v>
       </c>
       <c r="AD77" s="14">
@@ -31556,7 +31448,7 @@
       <c r="AA78" s="13">
         <v>81</v>
       </c>
-      <c r="AC78" s="167" t="s">
+      <c r="AC78" s="168" t="s">
         <v>269</v>
       </c>
       <c r="AD78" s="16">
@@ -32897,7 +32789,7 @@
       <c r="AA104" s="13">
         <v>84</v>
       </c>
-      <c r="AC104" s="166" t="s">
+      <c r="AC104" s="167" t="s">
         <v>268</v>
       </c>
       <c r="AD104" s="14">
@@ -32959,7 +32851,7 @@
       <c r="AA105" s="13">
         <v>80</v>
       </c>
-      <c r="AC105" s="167" t="s">
+      <c r="AC105" s="168" t="s">
         <v>269</v>
       </c>
       <c r="AD105" s="16">
@@ -34300,7 +34192,7 @@
       <c r="AA131" s="13">
         <v>84</v>
       </c>
-      <c r="AC131" s="166" t="s">
+      <c r="AC131" s="167" t="s">
         <v>268</v>
       </c>
       <c r="AD131" s="14">
@@ -34362,7 +34254,7 @@
       <c r="AA132" s="13">
         <v>81</v>
       </c>
-      <c r="AC132" s="167" t="s">
+      <c r="AC132" s="168" t="s">
         <v>269</v>
       </c>
       <c r="AD132" s="16">
@@ -35703,7 +35595,7 @@
       <c r="AA158" s="13">
         <v>84</v>
       </c>
-      <c r="AC158" s="166" t="s">
+      <c r="AC158" s="167" t="s">
         <v>268</v>
       </c>
       <c r="AD158" s="14">
@@ -35765,7 +35657,7 @@
       <c r="AA159" s="13">
         <v>81</v>
       </c>
-      <c r="AC159" s="167" t="s">
+      <c r="AC159" s="168" t="s">
         <v>269</v>
       </c>
       <c r="AD159" s="16">
@@ -37106,7 +36998,7 @@
       <c r="AA185" s="13">
         <v>84</v>
       </c>
-      <c r="AC185" s="166" t="s">
+      <c r="AC185" s="167" t="s">
         <v>268</v>
       </c>
       <c r="AD185" s="14">
@@ -37168,7 +37060,7 @@
       <c r="AA186" s="13">
         <v>82</v>
       </c>
-      <c r="AC186" s="167" t="s">
+      <c r="AC186" s="168" t="s">
         <v>269</v>
       </c>
       <c r="AD186" s="16">
@@ -38743,7 +38635,7 @@
       <c r="AA213" s="1">
         <v>121</v>
       </c>
-      <c r="AC213" s="166" t="s">
+      <c r="AC213" s="167" t="s">
         <v>268</v>
       </c>
       <c r="AD213" s="14">
@@ -38813,7 +38705,7 @@
       <c r="AA214" s="1">
         <v>123</v>
       </c>
-      <c r="AC214" s="167" t="s">
+      <c r="AC214" s="168" t="s">
         <v>269</v>
       </c>
       <c r="AD214" s="16">
@@ -44306,52 +44198,52 @@
   <sheetPr/>
   <dimension ref="A1:IP1513"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A75" workbookViewId="0">
       <selection activeCell="P30" sqref="P30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="5.70833333333333" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="5.7047619047619" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="5.70833333333333" style="1" customWidth="1"/>
+    <col min="1" max="1" width="5.7047619047619" style="1" customWidth="1"/>
     <col min="2" max="2" width="7" style="1" customWidth="1"/>
-    <col min="3" max="3" width="6.56666666666667" style="1" customWidth="1"/>
-    <col min="4" max="4" width="10.7083333333333" style="1" customWidth="1"/>
-    <col min="5" max="5" width="4.70833333333333" style="1" customWidth="1"/>
-    <col min="6" max="6" width="6.28333333333333" style="1" customWidth="1"/>
+    <col min="3" max="3" width="6.56190476190476" style="1" customWidth="1"/>
+    <col min="4" max="4" width="10.7047619047619" style="1" customWidth="1"/>
+    <col min="5" max="5" width="4.7047619047619" style="1" customWidth="1"/>
+    <col min="6" max="6" width="6.28571428571429" style="1" customWidth="1"/>
     <col min="7" max="7" width="11" style="1" customWidth="1"/>
-    <col min="8" max="8" width="5.70833333333333" style="1" customWidth="1"/>
-    <col min="9" max="9" width="7.28333333333333" style="1" customWidth="1"/>
-    <col min="10" max="10" width="6.28333333333333" style="1" customWidth="1"/>
-    <col min="11" max="11" width="7.56666666666667" style="1" customWidth="1"/>
-    <col min="12" max="12" width="4.28333333333333" style="1" customWidth="1"/>
+    <col min="8" max="8" width="5.7047619047619" style="1" customWidth="1"/>
+    <col min="9" max="9" width="7.28571428571429" style="1" customWidth="1"/>
+    <col min="10" max="10" width="6.28571428571429" style="1" customWidth="1"/>
+    <col min="11" max="11" width="7.56190476190476" style="1" customWidth="1"/>
+    <col min="12" max="12" width="4.28571428571429" style="1" customWidth="1"/>
     <col min="13" max="13" width="9" style="1" customWidth="1"/>
-    <col min="14" max="14" width="9.28333333333333" style="1" customWidth="1"/>
-    <col min="15" max="15" width="11.2833333333333" style="1" customWidth="1"/>
-    <col min="16" max="16" width="7.56666666666667" style="1" customWidth="1"/>
-    <col min="17" max="17" width="8.70833333333333" style="1" customWidth="1"/>
-    <col min="18" max="18" width="7.28333333333333" style="1" customWidth="1"/>
+    <col min="14" max="14" width="9.28571428571429" style="1" customWidth="1"/>
+    <col min="15" max="15" width="11.2857142857143" style="1" customWidth="1"/>
+    <col min="16" max="16" width="7.56190476190476" style="1" customWidth="1"/>
+    <col min="17" max="17" width="8.7047619047619" style="1" customWidth="1"/>
+    <col min="18" max="18" width="7.28571428571429" style="1" customWidth="1"/>
     <col min="19" max="19" width="9" style="1" customWidth="1"/>
-    <col min="20" max="20" width="9.56666666666667" style="1" customWidth="1"/>
-    <col min="21" max="21" width="33.2833333333333" style="1" customWidth="1"/>
-    <col min="22" max="22" width="9.70833333333333" style="1" customWidth="1"/>
-    <col min="23" max="23" width="7.28333333333333" style="1" customWidth="1"/>
-    <col min="24" max="24" width="11.5666666666667" style="1" customWidth="1"/>
-    <col min="25" max="25" width="6.56666666666667" style="1" customWidth="1"/>
-    <col min="26" max="26" width="9.28333333333333" style="1" customWidth="1"/>
-    <col min="27" max="27" width="10.425" style="1" customWidth="1"/>
-    <col min="28" max="28" width="4.70833333333333" style="1" customWidth="1"/>
-    <col min="29" max="29" width="5.70833333333333" style="1" customWidth="1"/>
-    <col min="30" max="30" width="4.425" style="1" customWidth="1"/>
-    <col min="31" max="31" width="5.425" style="1" customWidth="1"/>
-    <col min="32" max="32" width="4.425" style="1" customWidth="1"/>
+    <col min="20" max="20" width="9.56190476190476" style="1" customWidth="1"/>
+    <col min="21" max="21" width="33.2857142857143" style="1" customWidth="1"/>
+    <col min="22" max="22" width="9.7047619047619" style="1" customWidth="1"/>
+    <col min="23" max="23" width="7.28571428571429" style="1" customWidth="1"/>
+    <col min="24" max="24" width="11.5619047619048" style="1" customWidth="1"/>
+    <col min="25" max="25" width="6.56190476190476" style="1" customWidth="1"/>
+    <col min="26" max="26" width="9.28571428571429" style="1" customWidth="1"/>
+    <col min="27" max="27" width="10.4285714285714" style="1" customWidth="1"/>
+    <col min="28" max="28" width="4.7047619047619" style="1" customWidth="1"/>
+    <col min="29" max="29" width="5.7047619047619" style="1" customWidth="1"/>
+    <col min="30" max="30" width="4.42857142857143" style="1" customWidth="1"/>
+    <col min="31" max="31" width="5.42857142857143" style="1" customWidth="1"/>
+    <col min="32" max="32" width="4.42857142857143" style="1" customWidth="1"/>
     <col min="33" max="33" width="5" style="1" customWidth="1"/>
-    <col min="34" max="34" width="4.56666666666667" style="1" customWidth="1"/>
+    <col min="34" max="34" width="4.56190476190476" style="1" customWidth="1"/>
     <col min="35" max="35" width="4" style="1" customWidth="1"/>
-    <col min="36" max="36" width="4.28333333333333" style="1" customWidth="1"/>
+    <col min="36" max="36" width="4.28571428571429" style="1" customWidth="1"/>
     <col min="37" max="37" width="4" style="1" customWidth="1"/>
-    <col min="38" max="38" width="3.70833333333333" style="1" customWidth="1"/>
-    <col min="39" max="40" width="4.28333333333333" style="1" customWidth="1"/>
-    <col min="41" max="16384" width="5.70833333333333" style="1"/>
+    <col min="38" max="38" width="3.7047619047619" style="1" customWidth="1"/>
+    <col min="39" max="40" width="4.28571428571429" style="1" customWidth="1"/>
+    <col min="41" max="16384" width="5.7047619047619" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21">
